--- a/NotchingGradeInsp_Document/SPC+/사양서작성/SPC+데어터형식정의_LG공통.xlsx
+++ b/NotchingGradeInsp_Document/SPC+/사양서작성/SPC+데어터형식정의_LG공통.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="STATUS" sheetId="1" r:id="rId1"/>
     <sheet name="갭비전 외관+치수 INSP" sheetId="4" r:id="rId2"/>
     <sheet name="THICKNESS" sheetId="5" r:id="rId3"/>
+    <sheet name="ALIGN비전" sheetId="6" r:id="rId4"/>
+    <sheet name="SPEC ＆ PARA" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="644">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1646,6 +1648,411 @@
   </si>
   <si>
     <t>두께 측정 센서 Raw Data 값</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>ALIGN_REASON_ALL: "[[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_ID: "A1ASTK026",</t>
+  </si>
+  <si>
+    <t>PROCESS_NAME: "STK",</t>
+  </si>
+  <si>
+    <t>VISION_TYPE: "MONO-ALIGN",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL_FINAL_JUDGE: "NG",                </t>
+  </si>
+  <si>
+    <t>ALIGN_JUDGE_RESULT: "NG",</t>
+  </si>
+  <si>
+    <t>PRE-ALIGN,</t>
+  </si>
+  <si>
+    <t>ALIGN</t>
+  </si>
+  <si>
+    <t>]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGN_NAME: "PRE-ALIGN",</t>
+  </si>
+  <si>
+    <t>ALIGN_CAMERA_LOCATION: "TOP",</t>
+  </si>
+  <si>
+    <t>ALIGN_CAMERA_NUMBER: "1",</t>
+  </si>
+  <si>
+    <t>ALIGN_SCREEN_NUMBER: "1",</t>
+  </si>
+  <si>
+    <t>ALIGN_CELL_POSITION: "REAR",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_JUDGE: "",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_NAME: "CELL_LT",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_X_PXL: "25.000",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_Y_PXL: "67.000",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_X_MM: "32.020",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_Y_MM: "120.101",</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_T: "",</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_X: "",</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_Y: "",</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_T: "",</t>
+  </si>
+  <si>
+    <t>ALIGN_NAME:</t>
+  </si>
+  <si>
+    <t>ALIGN_CAMERA_LOCATION:</t>
+  </si>
+  <si>
+    <t>ALIGN_CAMERA_NUMBER:</t>
+  </si>
+  <si>
+    <t>ALIGN_SCREEN_NUMBER:</t>
+  </si>
+  <si>
+    <t>ALIGN_CELL_POSITION:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_JUDGE:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_NAME:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_X_PXL:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_Y_PXL:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_X_MM:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_Y_MM:</t>
+  </si>
+  <si>
+    <t>ALIGN_POINT_T:</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_X:</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_Y:</t>
+  </si>
+  <si>
+    <t>ALIGN_OFFSET_T:</t>
+  </si>
+  <si>
+    <t>e.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.21.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.21.2</t>
+  </si>
+  <si>
+    <t>{},...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGN_INFO: "[[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALIGN_JUDGE_RESULT:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼라인 판정 최종결과 OK/NG 여부</t>
+  </si>
+  <si>
+    <t>측정실패 Align Name 전체, 중복항목은 1번만 기입</t>
+  </si>
+  <si>
+    <t>Align 명칭, "7. ALIGN 명칭"시트 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 위치_TOP, BTM</t>
+  </si>
+  <si>
+    <t>좌표 판정값(OK, NG), 판정이 없을경우 NULL("")로 작성</t>
+  </si>
+  <si>
+    <t>이미지 기준 좌표명, "7. ALIGN 명칭"시트를 참고</t>
+  </si>
+  <si>
+    <t>이미지 좌상단 기준 좌표 위치 X (pxl)</t>
+  </si>
+  <si>
+    <t>이미지 좌상단 기준 좌표 위치 Y (pxl)</t>
+  </si>
+  <si>
+    <t>이미지 좌상단 기준 좌표 위치 X (mm)</t>
+  </si>
+  <si>
+    <t>이미지 좌상단 기준 좌표 위치 Y (mm)</t>
+  </si>
+  <si>
+    <t>좌표 위치 T (˚)</t>
+  </si>
+  <si>
+    <t>좌표의 Offset X(mm)</t>
+  </si>
+  <si>
+    <t>좌표의 Offset Y(mm)</t>
+  </si>
+  <si>
+    <t>좌표의 Offset T(˚)</t>
+  </si>
+  <si>
+    <t>CATEGORY: "SPEC_PARA",</t>
+  </si>
+  <si>
+    <t>INSP_RECIPE: "ACF1015I-B1",</t>
+  </si>
+  <si>
+    <t>EQP_ID: "A1ALAM031",</t>
+  </si>
+  <si>
+    <t>EQP_INSP_ID: "ABCDE",</t>
+  </si>
+  <si>
+    <t>RECIPE_ID : "E63A"</t>
+  </si>
+  <si>
+    <t>INSP_SW_VERSION: "1.01",</t>
+  </si>
+  <si>
+    <t>MODIFY_TIME: "20201221091030300",</t>
+  </si>
+  <si>
+    <t>MODIFIER: "ABCD",</t>
+  </si>
+  <si>
+    <t>MODIFIER_REASON: "DENT",</t>
+  </si>
+  <si>
+    <t>INSP_RECIPE:</t>
+  </si>
+  <si>
+    <t>RECIPE_ID :</t>
+  </si>
+  <si>
+    <t>INSP_SW_VERSION:</t>
+  </si>
+  <si>
+    <t>MODIFY_TIME:</t>
+  </si>
+  <si>
+    <t>MODIFIER:</t>
+  </si>
+  <si>
+    <t>MODIFIER_REASON:</t>
+  </si>
+  <si>
+    <t>PARA_INFO:[</t>
+  </si>
+  <si>
+    <t>PARA_INSP_TYPE: "DIMENSION",</t>
+  </si>
+  <si>
+    <t>PARA_CAM_POSITION: "TOP",</t>
+  </si>
+  <si>
+    <t>PARA_DEFECTION_NAME: "TWA",</t>
+  </si>
+  <si>
+    <t>ROI_SY : "4646",</t>
+  </si>
+  <si>
+    <t>ROI_EX : "250",</t>
+  </si>
+  <si>
+    <t>ROI_EY : "650" ,</t>
+  </si>
+  <si>
+    <t>USE_MULTI_ROI: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_1_A: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_1_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_1_A: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_1_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_1_A: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_1_B: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_1_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_1_B: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_1_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_1_B: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_1_C: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_1_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_1_C: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_1_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_1_C: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_2_A: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_2_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_2_A: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_2_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_2_A: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_2_B: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_2_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_2_B: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_2_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_2_B: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_2_C: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_2_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_2_C: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_2_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_2_C: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_3_A: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_3_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_3_A: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_3_A: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_3_A: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_3_B: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_3_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_3_B: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_3_B: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_3_B: "",</t>
+  </si>
+  <si>
+    <t>MIN_GV_3_C: "",</t>
+  </si>
+  <si>
+    <t>MAX_GV_3_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_3_C: "",</t>
+  </si>
+  <si>
+    <t>SEARCHING_DIRECTION_3_C: "",</t>
+  </si>
+  <si>
+    <t>SLOPE_DIRECTION_3_C: "",</t>
+  </si>
+  <si>
+    <t>PARA_NO : "1",</t>
+  </si>
+  <si>
+    <t>PARA_CELL_POSITION : "FRONT"</t>
+  </si>
+  <si>
+    <t>ROI_SX : "3766",</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2417,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4410,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4743,7 +5150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="165">
+    <row r="22" spans="1:8" ht="99">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -5054,6 +5461,1501 @@
     <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="99">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>512</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>555</v>
+      </c>
+      <c r="B34" t="s">
+        <v>520</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>521</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B36" t="s">
+        <v>557</v>
+      </c>
+      <c r="H36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>538</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>543</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>544</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>549</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>550</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>551</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B54" t="s">
+        <v>556</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/NotchingGradeInsp_Document/SPC+/사양서작성/SPC+데어터형식정의_LG공통.xlsx
+++ b/NotchingGradeInsp_Document/SPC+/사양서작성/SPC+데어터형식정의_LG공통.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="STATUS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1047">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,14 +570,6 @@
     <t>e.26.2</t>
   </si>
   <si>
-    <t>{},</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>e.27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -592,14 +584,6 @@
   </si>
   <si>
     <t>e.30.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e.30.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e.30.3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3339,6 +3323,14 @@
   </si>
   <si>
     <t>어깨선 검사기 치수측정 값</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3439,14 +3431,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3774,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3792,7 +3784,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3809,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3826,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3843,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3860,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3876,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -3894,7 +3886,7 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3910,11 +3902,11 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2"/>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3925,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3948,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3965,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3976,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3993,13 +3985,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4016,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4033,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4050,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4058,22 +4050,22 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1">
       <c r="B22" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C22" s="2"/>
       <c r="H22" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4093,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H134"/>
+  <dimension ref="A2:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4124,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -4142,7 +4134,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4159,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4176,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4193,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4210,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4226,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -4244,7 +4236,7 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4260,11 +4252,11 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4275,13 +4267,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4292,13 +4284,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4309,13 +4301,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4326,13 +4318,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4343,13 +4335,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4360,13 +4352,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4377,13 +4369,13 @@
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4394,13 +4386,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4411,13 +4403,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4428,13 +4420,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4445,13 +4437,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4462,13 +4454,13 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4479,13 +4471,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4496,13 +4488,13 @@
         <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="99">
@@ -4513,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4530,13 +4522,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4547,13 +4539,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4564,13 +4556,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4581,13 +4573,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4598,13 +4590,13 @@
         <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4615,13 +4607,13 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4632,7 +4624,7 @@
         <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4651,7 +4643,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -4668,7 +4660,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -4685,7 +4677,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -4702,7 +4694,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -4719,7 +4711,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4736,7 +4728,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4753,7 +4745,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4770,7 +4762,7 @@
         <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -4787,7 +4779,7 @@
         <v>74</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -4804,7 +4796,7 @@
         <v>75</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4821,7 +4813,7 @@
         <v>76</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -4838,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -4855,7 +4847,7 @@
         <v>78</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4872,7 +4864,7 @@
         <v>79</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4889,13 +4881,13 @@
         <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4908,10 +4900,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4922,13 +4914,13 @@
         <v>42</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4939,13 +4931,13 @@
         <v>43</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4956,10 +4948,10 @@
         <v>91</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4992,10 +4984,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5006,10 +4998,10 @@
         <v>92</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H59" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5023,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5037,82 +5029,82 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
         <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>93</v>
@@ -5123,1052 +5115,1036 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>102</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
         <v>107</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83" t="s">
-        <v>95</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="5" customFormat="1">
+      <c r="B83" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="H83" s="5" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" t="s">
-        <v>260</v>
-      </c>
-      <c r="H84" t="s">
-        <v>166</v>
+      <c r="B84" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>174</v>
-      </c>
       <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>47</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="H88" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H89" t="s">
-        <v>230</v>
+        <v>193</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>198</v>
-      </c>
       <c r="B90" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" t="b">
+        <v>227</v>
+      </c>
+      <c r="H90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" t="b">
         <v>0</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>231</v>
-      </c>
-      <c r="H91" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" t="s">
-        <v>259</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="H92" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
+        <v>227</v>
+      </c>
+      <c r="H93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
         <v>257</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>231</v>
-      </c>
-      <c r="H94" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
         <v>258</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D96" t="b">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>364</v>
-      </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D131" t="b">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="H131" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
         <v>89</v>
       </c>
-      <c r="H132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="5" customFormat="1">
-      <c r="B133" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="C133" s="3"/>
+    </row>
+    <row r="132" spans="1:8" s="5" customFormat="1">
+      <c r="B132" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="H132" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
       <c r="H133" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>65</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -6182,7 +6158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6211,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -6229,7 +6205,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6246,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6263,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6280,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6297,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6313,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -6331,7 +6307,7 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6347,11 +6323,11 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2"/>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6362,13 +6338,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6379,13 +6355,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6396,13 +6372,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6413,13 +6389,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6430,13 +6406,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6447,13 +6423,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6464,13 +6440,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6481,13 +6457,13 @@
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6498,13 +6474,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6515,13 +6491,13 @@
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="99">
@@ -6532,13 +6508,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6549,13 +6525,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6566,13 +6542,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6583,13 +6559,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6600,13 +6576,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6617,13 +6593,13 @@
         <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6634,13 +6610,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6648,7 +6624,7 @@
         <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6658,160 +6634,160 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B32" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B40" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -6819,10 +6795,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6843,11 +6819,11 @@
     </row>
     <row r="45" spans="1:8" s="5" customFormat="1">
       <c r="B45" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C45" s="2"/>
       <c r="H45" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6869,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6898,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -6916,7 +6892,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6933,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6950,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6967,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6984,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7000,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -7018,7 +6994,7 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7034,11 +7010,11 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2"/>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7049,13 +7025,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7066,13 +7042,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7083,13 +7059,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7100,13 +7076,13 @@
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7117,13 +7093,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7134,13 +7110,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7151,13 +7127,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7168,13 +7144,13 @@
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7185,13 +7161,13 @@
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7202,13 +7178,13 @@
         <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="99">
@@ -7219,13 +7195,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7236,13 +7212,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7253,13 +7229,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7270,13 +7246,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7287,13 +7263,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7304,13 +7280,13 @@
         <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7321,13 +7297,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7335,13 +7311,13 @@
         <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7349,13 +7325,13 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7363,16 +7339,16 @@
         <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7380,60 +7356,60 @@
         <v>141</v>
       </c>
       <c r="B33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B35" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>519</v>
-      </c>
-      <c r="H36" t="s">
-        <v>89</v>
+        <v>515</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>547</v>
+      </c>
+      <c r="B37" t="s">
         <v>551</v>
       </c>
-      <c r="B37" t="s">
-        <v>555</v>
-      </c>
       <c r="H37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7449,16 +7425,16 @@
         <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7466,16 +7442,16 @@
         <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="33">
@@ -7483,16 +7459,16 @@
         <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7500,16 +7476,16 @@
         <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7517,16 +7493,16 @@
         <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7534,16 +7510,16 @@
         <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7551,16 +7527,16 @@
         <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7568,16 +7544,16 @@
         <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7585,16 +7561,16 @@
         <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7602,16 +7578,16 @@
         <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7619,16 +7595,16 @@
         <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7636,16 +7612,16 @@
         <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7653,16 +7629,16 @@
         <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7670,16 +7646,16 @@
         <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7687,16 +7663,16 @@
         <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7709,13 +7685,13 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="B55" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7728,18 +7704,18 @@
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -7753,8 +7729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7774,7 +7750,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7782,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -7800,7 +7776,7 @@
         <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7817,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7834,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7851,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7868,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7884,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -7902,7 +7878,7 @@
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7918,11 +7894,11 @@
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2"/>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7933,13 +7909,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -7947,13 +7923,13 @@
         <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -7964,13 +7940,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -7981,13 +7957,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7995,16 +7971,16 @@
         <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8012,16 +7988,16 @@
         <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -8029,16 +8005,16 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8046,16 +8022,16 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8063,30 +8039,30 @@
         <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8099,877 +8075,877 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B24" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B25" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B26" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="33">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B27" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>686</v>
+      </c>
+      <c r="B28" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="8" customFormat="1">
+      <c r="A32" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="9" customFormat="1">
-      <c r="A29" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="D29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1">
-      <c r="A30" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="D30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1">
-      <c r="A31" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="D31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1">
-      <c r="A32" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="D32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>589</v>
+      <c r="D32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>754</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B35" t="s">
-        <v>649</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>645</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B36" t="s">
-        <v>650</v>
-      </c>
-      <c r="C36" s="8"/>
+        <v>646</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B37" t="s">
-        <v>651</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>647</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C38" s="8"/>
+        <v>648</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>760</v>
+        <v>756</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>756</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B40" t="s">
-        <v>653</v>
-      </c>
-      <c r="C40" s="8"/>
+        <v>649</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B41" t="s">
-        <v>654</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>650</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B42" t="s">
-        <v>655</v>
-      </c>
-      <c r="C42" s="8"/>
+        <v>651</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B43" t="s">
-        <v>656</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>652</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>757</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B45" t="s">
-        <v>657</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>653</v>
+      </c>
+      <c r="C45" s="10"/>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B46" t="s">
-        <v>658</v>
-      </c>
-      <c r="C46" s="8"/>
+        <v>654</v>
+      </c>
+      <c r="C46" s="10"/>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B47" t="s">
-        <v>659</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>655</v>
+      </c>
+      <c r="C47" s="10"/>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B48" t="s">
-        <v>660</v>
-      </c>
-      <c r="C48" s="8"/>
+        <v>656</v>
+      </c>
+      <c r="C48" s="10"/>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>758</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B50" t="s">
-        <v>661</v>
-      </c>
-      <c r="C50" s="8"/>
+        <v>657</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="D50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B51" t="s">
-        <v>662</v>
-      </c>
-      <c r="C51" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="C51" s="10"/>
       <c r="D51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B52" t="s">
-        <v>663</v>
-      </c>
-      <c r="C52" s="8"/>
+        <v>659</v>
+      </c>
+      <c r="C52" s="10"/>
       <c r="D52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B53" t="s">
-        <v>664</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>660</v>
+      </c>
+      <c r="C53" s="10"/>
       <c r="D53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>763</v>
+        <v>759</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>759</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B55" t="s">
-        <v>665</v>
-      </c>
-      <c r="C55" s="8"/>
+        <v>661</v>
+      </c>
+      <c r="C55" s="10"/>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B56" t="s">
-        <v>666</v>
-      </c>
-      <c r="C56" s="8"/>
+        <v>662</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B57" t="s">
-        <v>667</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>663</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B58" t="s">
-        <v>668</v>
-      </c>
-      <c r="C58" s="8"/>
+        <v>664</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>760</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B60" t="s">
-        <v>669</v>
-      </c>
-      <c r="C60" s="8"/>
+        <v>665</v>
+      </c>
+      <c r="C60" s="10"/>
       <c r="D60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B61" t="s">
-        <v>670</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>666</v>
+      </c>
+      <c r="C61" s="10"/>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B62" t="s">
-        <v>671</v>
-      </c>
-      <c r="C62" s="8"/>
+        <v>667</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B63" t="s">
-        <v>672</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>668</v>
+      </c>
+      <c r="C63" s="10"/>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>761</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="C65" s="8"/>
+        <v>755</v>
+      </c>
+      <c r="C65" s="10"/>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B66" t="s">
-        <v>673</v>
-      </c>
-      <c r="C66" s="8"/>
+        <v>669</v>
+      </c>
+      <c r="C66" s="10"/>
       <c r="D66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B67" t="s">
-        <v>674</v>
-      </c>
-      <c r="C67" s="8"/>
+        <v>670</v>
+      </c>
+      <c r="C67" s="10"/>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B68" t="s">
-        <v>675</v>
-      </c>
-      <c r="C68" s="8"/>
+        <v>671</v>
+      </c>
+      <c r="C68" s="10"/>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>762</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B70" t="s">
-        <v>676</v>
-      </c>
-      <c r="C70" s="8"/>
+        <v>672</v>
+      </c>
+      <c r="C70" s="10"/>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B71" t="s">
-        <v>677</v>
-      </c>
-      <c r="C71" s="8"/>
+        <v>673</v>
+      </c>
+      <c r="C71" s="10"/>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B72" t="s">
-        <v>678</v>
-      </c>
-      <c r="C72" s="8"/>
+        <v>674</v>
+      </c>
+      <c r="C72" s="10"/>
       <c r="D72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B73" t="s">
-        <v>679</v>
-      </c>
-      <c r="C73" s="8"/>
+        <v>675</v>
+      </c>
+      <c r="C73" s="10"/>
       <c r="D73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>763</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B75" t="s">
-        <v>680</v>
-      </c>
-      <c r="C75" s="8"/>
+        <v>676</v>
+      </c>
+      <c r="C75" s="10"/>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B76" t="s">
-        <v>681</v>
-      </c>
-      <c r="C76" s="8"/>
+        <v>677</v>
+      </c>
+      <c r="C76" s="10"/>
       <c r="D76" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="6"/>
       <c r="H76" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B77" t="s">
-        <v>682</v>
-      </c>
-      <c r="C77" s="8"/>
+        <v>678</v>
+      </c>
+      <c r="C77" s="10"/>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B78" t="s">
-        <v>683</v>
-      </c>
-      <c r="C78" s="8"/>
+        <v>679</v>
+      </c>
+      <c r="C78" s="10"/>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B79" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8977,7 +8953,7 @@
         <v>95</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H80" t="s">
         <v>95</v>
@@ -8985,580 +8961,580 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D81" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H81" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="5" customFormat="1">
       <c r="B82" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C82" s="2"/>
       <c r="H82" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D85" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D86" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="33">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D88" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D89" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D90" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D91" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D96" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D97" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D98" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D99" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D100" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D101" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D102" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D103" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D104" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D105" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D106" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D107" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D108" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D109" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D110" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D111" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D112" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D113" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D115" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D116" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="5" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D117" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D118" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D119" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D120" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="B121" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -9613,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -9631,7 +9607,7 @@
         <v>86</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9648,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9665,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9682,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9699,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9715,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -9733,7 +9709,7 @@
         <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9763,13 +9739,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9780,13 +9756,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9797,13 +9773,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9814,13 +9790,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9831,13 +9807,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9848,13 +9824,13 @@
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9862,19 +9838,19 @@
         <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D19" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="165">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="132">
       <c r="A20" s="5" t="s">
         <v>128</v>
       </c>
@@ -9882,13 +9858,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D20" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9899,13 +9875,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D21" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9913,16 +9889,16 @@
         <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D22" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9930,16 +9906,16 @@
         <v>131</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D23" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9947,16 +9923,16 @@
         <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9964,16 +9940,16 @@
         <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D25" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9981,16 +9957,16 @@
         <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9998,16 +9974,16 @@
         <v>135</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10015,16 +9991,16 @@
         <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D28" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10032,16 +10008,16 @@
         <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D29" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10054,10 +10030,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -10071,7 +10047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -10101,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -10119,7 +10095,7 @@
         <v>86</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -10136,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -10153,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -10170,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -10187,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -10203,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -10221,7 +10197,7 @@
         <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -10237,10 +10213,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -10251,13 +10227,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -10268,13 +10244,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -10285,13 +10261,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -10302,13 +10278,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="33">
@@ -10319,13 +10295,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10336,13 +10312,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D18" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10353,13 +10329,13 @@
         <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D19" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10370,13 +10346,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D20" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10387,13 +10363,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D21" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10404,13 +10380,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D22" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10421,13 +10397,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D23" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10438,13 +10414,13 @@
         <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D24" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10455,13 +10431,13 @@
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D25" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10472,13 +10448,13 @@
         <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D26" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="99">
@@ -10489,13 +10465,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D27" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10506,13 +10482,13 @@
         <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D28" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10523,13 +10499,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D29" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10540,13 +10516,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D30" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10557,13 +10533,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D31" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10574,13 +10550,13 @@
         <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D32" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10591,13 +10567,13 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D33" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -10605,33 +10581,33 @@
         <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D34" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D35" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -10639,27 +10615,27 @@
         <v>159</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D36" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -10675,10 +10651,10 @@
         <v>161</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D39" s="5" t="b">
         <v>1</v>
@@ -10692,10 +10668,10 @@
         <v>162</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D40" s="5" t="b">
         <v>1</v>
@@ -10706,13 +10682,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D41" s="5" t="b">
         <v>1</v>
@@ -10723,13 +10699,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D42" s="5" t="b">
         <v>1</v>
@@ -10740,30 +10716,30 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D43" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D44" s="5" t="b">
         <v>1</v>
@@ -10774,30 +10750,30 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D45" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D46" s="5" t="b">
         <v>1</v>
@@ -10808,47 +10784,47 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D47" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D48" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D49" s="5" t="b">
         <v>1</v>
@@ -10859,47 +10835,47 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D50" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D51" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D52" s="5" t="b">
         <v>1</v>
@@ -10910,19 +10886,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -10938,7 +10914,7 @@
         <v>89</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -10949,153 +10925,153 @@
         <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D56" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D57" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D59" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D60" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D61" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D64" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D65" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -11108,270 +11084,270 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D68" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D69" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D70" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D71" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D72" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D73" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D74" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D75" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D76" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D77" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D78" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D79" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D80" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D81" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -11384,55 +11360,55 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D86" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D87" s="5" t="b">
         <v>1</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -11445,10 +11421,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="B91" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
